--- a/BOM_Volksturm.xlsx
+++ b/BOM_Volksturm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="211">
   <si>
     <t>Original parts</t>
   </si>
@@ -532,6 +532,123 @@
   </si>
   <si>
     <t>JP14</t>
+  </si>
+  <si>
+    <t>JRB1C221M02500</t>
+  </si>
+  <si>
+    <t>16v</t>
+  </si>
+  <si>
+    <t>JRB1H010M020005</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>1n4148w</t>
+  </si>
+  <si>
+    <t>sod-123</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>1K6</t>
+  </si>
+  <si>
+    <t>LMC7660IN/NOPB TI</t>
+  </si>
+  <si>
+    <t>DIP-8</t>
+  </si>
+  <si>
+    <t>CD4013BM96 TI</t>
+  </si>
+  <si>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>MPS2907AG ONS</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>MPS2222AG ONS</t>
+  </si>
+  <si>
+    <t>KT3107A</t>
+  </si>
+  <si>
+    <t>CD4069UBM TI</t>
+  </si>
+  <si>
+    <t>KT3102AM</t>
+  </si>
+  <si>
+    <t>CD4024BE TI</t>
+  </si>
+  <si>
+    <t>DIP-14</t>
+  </si>
+  <si>
+    <t>LM393ADR TI</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>LF353DR TI</t>
+  </si>
+  <si>
+    <t>1,8k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k </t>
+  </si>
+  <si>
+    <t>39k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>5,6k</t>
+  </si>
+  <si>
+    <t>430k</t>
+  </si>
+  <si>
+    <t>270k</t>
+  </si>
+  <si>
+    <t>220pf</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>470k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>3900p</t>
+  </si>
+  <si>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>220k</t>
   </si>
 </sst>
 </file>
@@ -867,19 +984,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -890,39 +1008,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,7 +1072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -946,63 +1088,105 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1010,15 +1194,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1026,71 +1219,125 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1098,7 +1345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1106,15 +1353,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <v>390</v>
+      </c>
+      <c r="F29">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1122,15 +1375,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -1138,15 +1397,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1154,23 +1419,35 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1178,23 +1455,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
@@ -1202,7 +1491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -1210,7 +1499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -1218,31 +1507,52 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
@@ -1250,15 +1560,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -1266,23 +1582,35 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -1290,23 +1618,35 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -1314,15 +1654,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -1330,15 +1676,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
@@ -1346,47 +1698,77 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>101</v>
       </c>
@@ -1394,39 +1776,63 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -1434,15 +1840,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
@@ -1450,39 +1862,63 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -1490,7 +1926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>116</v>
       </c>
@@ -1498,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
@@ -1506,7 +1942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>118</v>
       </c>
@@ -1514,79 +1950,133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>127</v>
       </c>
@@ -1594,7 +2084,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>129</v>
       </c>
@@ -1602,47 +2092,80 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="D93">
+        <v>27</v>
+      </c>
+      <c r="F93">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="D94">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="D95" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>139</v>
       </c>
@@ -1650,15 +2173,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>142</v>
       </c>
@@ -1666,15 +2195,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>146</v>
       </c>
@@ -1682,7 +2217,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>148</v>
       </c>
@@ -1690,7 +2225,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>149</v>
       </c>
@@ -1698,23 +2233,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>154</v>
       </c>
@@ -1722,7 +2269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>156</v>
       </c>
@@ -1730,37 +2277,55 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="F108" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" t="s">
+        <v>190</v>
+      </c>
+      <c r="F109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>165</v>
       </c>
@@ -1768,7 +2333,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>167</v>
       </c>
